--- a/fe/public/templates/questions_template.xlsx
+++ b/fe/public/templates/questions_template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6080"/>
+    <workbookView windowWidth="18350" windowHeight="6800"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="50">
   <si>
     <t>Loại</t>
   </si>
@@ -177,22 +177,6 @@
   </si>
   <si>
     <t>What did Baker discover about young children with higher self-control?</t>
-  </si>
-  <si>
-    <t>matching</t>
-  </si>
-  <si>
-    <t>Match each researcher with their main research focus.</t>
-  </si>
-  <si>
-    <t>Whitebread
-Sara Baker
-Jenny Gibson</t>
-  </si>
-  <si>
-    <t>Role of play in intellectual development
-Self-control and scientific reasoning
-Play as an indicator of social and emotional well-being</t>
   </si>
 </sst>
 </file>
@@ -835,7 +819,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -845,9 +829,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1199,10 +1180,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -1430,7 +1411,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
-      <c r="J7" s="6" t="b">
+      <c r="J7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1454,7 +1435,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
-      <c r="J8" s="6" t="b">
+      <c r="J8" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1478,7 +1459,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="6" t="b">
+      <c r="J9" s="5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1550,32 +1531,6 @@
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
     </row>
-    <row r="13" ht="43.5" spans="1:10">
-      <c r="A13" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
